--- a/paper_templates/PBC_Template.xlsx
+++ b/paper_templates/PBC_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\개인업무\그외\PBC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\SnowBall\paper_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD921635-920D-4808-945A-E3B5E456A3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA03529-4B18-4FAD-AC69-327572C943FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="937" firstSheet="49" activeTab="65" xr2:uid="{63F75E10-BB56-4E9E-A778-30D29C10B4DE}"/>
+    <workbookView xWindow="28605" yWindow="16290" windowWidth="29040" windowHeight="15720" tabRatio="937" firstSheet="49" xr2:uid="{63F75E10-BB56-4E9E-A778-30D29C10B4DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -11507,7 +11507,7 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11559,25 +11559,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11658,22 +11649,19 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -12648,7 +12636,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IF Master"/>
@@ -12669,7 +12657,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PLSPD04"/>
@@ -12722,7 +12710,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Scoping"/>
@@ -13000,7 +12988,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RCSA Matrix"/>
@@ -17641,7 +17629,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1 START HERE | Overview"/>
@@ -17816,7 +17804,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -23195,7 +23183,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Scoping"/>
@@ -23274,7 +23262,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RCSA Matrix"/>
@@ -23318,9 +23306,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23358,7 +23346,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -23464,7 +23452,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23606,7 +23594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23616,7 +23604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DD1A51-7510-4738-906B-FBA34827BE3A}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -23624,7 +23612,7 @@
   <cols>
     <col min="1" max="1" width="6.375" style="12" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="33.375" style="28" customWidth="1"/>
     <col min="4" max="4" width="55" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="22.75" style="1" customWidth="1"/>
@@ -23633,7 +23621,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="2"/>
-      <c r="C1" s="28"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="4"/>
       <c r="E1" s="2"/>
     </row>
@@ -23642,7 +23630,7 @@
       <c r="B2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
       <c r="F2" s="5"/>
@@ -23650,7 +23638,7 @@
     <row r="3" spans="1:6">
       <c r="A3" s="13"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="30"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="9"/>
@@ -23660,7 +23648,7 @@
       <c r="B4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="9"/>
@@ -23670,14 +23658,14 @@
       <c r="B5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="4"/>
-      <c r="C6" s="28"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="4"/>
       <c r="E6" s="2"/>
     </row>
@@ -23686,585 +23674,585 @@
       <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="4"/>
-      <c r="C8" s="28"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="13.5">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.5">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="13.5">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" ht="13.5">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="13.5">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="13.5">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="23"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" ht="13.5">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="23"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" ht="13.5">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="13.5">
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="1:6" s="18" customFormat="1" ht="13.5">
-      <c r="A18" s="17"/>
-      <c r="B18" s="54" t="s">
+    <row r="18" spans="1:6" s="17" customFormat="1" ht="13.5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="21"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" s="18" customFormat="1" ht="13.5">
-      <c r="A19" s="17"/>
-      <c r="B19" s="54" t="s">
+    <row r="19" spans="1:6" s="17" customFormat="1" ht="13.5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="21"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" s="18" customFormat="1" ht="13.5">
-      <c r="A20" s="17"/>
-      <c r="B20" s="54" t="s">
+    <row r="20" spans="1:6" s="17" customFormat="1" ht="13.5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="21"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="1:6" s="19" customFormat="1" ht="13.5">
+    <row r="21" spans="1:6" s="17" customFormat="1" ht="13.5">
       <c r="A21" s="4"/>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="22"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" s="19" customFormat="1" ht="13.5">
+    <row r="22" spans="1:6" s="17" customFormat="1" ht="13.5">
       <c r="A22" s="4"/>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="22"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6" s="19" customFormat="1" ht="13.5">
+    <row r="23" spans="1:6" s="17" customFormat="1" ht="13.5">
       <c r="A23" s="4"/>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="22"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:6" s="19" customFormat="1" ht="13.5">
+    <row r="24" spans="1:6" s="17" customFormat="1" ht="13.5">
       <c r="A24" s="4"/>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="22"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6" s="19" customFormat="1" ht="13.5">
+    <row r="25" spans="1:6" s="17" customFormat="1" ht="13.5">
       <c r="A25" s="4"/>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="22"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" ht="13.5">
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" ht="13.5">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" ht="13.5">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" ht="13.5">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" ht="13.5">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" ht="13.5">
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="13.5">
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="2:6" ht="13.5">
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="2:6" ht="13.5">
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="2:6" ht="13.5">
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="2:6" ht="13.5">
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="2:6" ht="13.5">
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="2:6" ht="13.5">
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="2:6" ht="13.5">
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="2:6" ht="13.5">
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="2:6" ht="13.5">
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="2:6" ht="13.5">
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="2:6" ht="13.5">
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="20"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="2:6" ht="13.5">
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="20"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="2:6" ht="13.5">
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="20"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="2:6" ht="13.5">
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="46" t="s">
+      <c r="D46" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="20"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="2:6" ht="13.5">
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="50"/>
-      <c r="F47" s="51"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="2:6" ht="13.5">
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="2:6" ht="13.5">
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="2:6" ht="13.5">
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="2:6" ht="13.5">
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -24402,7 +24390,7 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -24680,7 +24668,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="33">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>141</v>
       </c>
     </row>
@@ -24713,39 +24701,39 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="54" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="58"/>
+      <c r="A3" s="54"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="58"/>
+      <c r="A4" s="54"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="58"/>
+      <c r="A5" s="54"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="58"/>
+      <c r="A6" s="54"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="58"/>
+      <c r="A7" s="54"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="58"/>
+      <c r="A8" s="54"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="58"/>
+      <c r="A9" s="54"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="58"/>
+      <c r="A10" s="54"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="58"/>
+      <c r="A11" s="54"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="58"/>
+      <c r="A12" s="54"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
@@ -24801,7 +24789,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" ht="99">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="52" t="s">
         <v>113</v>
       </c>
     </row>
@@ -24980,12 +24968,12 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="66">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="54" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="58"/>
+      <c r="A3" s="54"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
@@ -24993,28 +24981,28 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="58"/>
+      <c r="A5" s="54"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="58"/>
+      <c r="A6" s="54"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="58"/>
+      <c r="A7" s="54"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="58"/>
+      <c r="A8" s="54"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="58"/>
+      <c r="A9" s="54"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="58"/>
+      <c r="A10" s="54"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="58"/>
+      <c r="A11" s="54"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="58"/>
+      <c r="A12" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -25040,39 +25028,39 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="54" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="58"/>
+      <c r="A3" s="54"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="58"/>
+      <c r="A4" s="54"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="58"/>
+      <c r="A5" s="54"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="58"/>
+      <c r="A6" s="54"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="58"/>
+      <c r="A7" s="54"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="58"/>
+      <c r="A8" s="54"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="58"/>
+      <c r="A9" s="54"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="58"/>
+      <c r="A10" s="54"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="58"/>
+      <c r="A11" s="54"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="58"/>
+      <c r="A12" s="54"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
@@ -25103,7 +25091,7 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="56"/>
+      <c r="A3" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -25128,7 +25116,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="33">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="54" t="s">
         <v>148</v>
       </c>
     </row>
@@ -25338,7 +25326,7 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="56"/>
+      <c r="A3" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -25553,7 +25541,7 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="56"/>
+      <c r="A3" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -25597,7 +25585,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="82.5">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>134</v>
       </c>
     </row>
@@ -25688,7 +25676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA57E4CD-82EE-47CA-9FCC-1C4DBBD9BE80}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
